--- a/nr-test-delete-patient/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T08:42:59+00:00</t>
+    <t>2024-05-31T08:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-delete-patient/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T08:45:00+00:00</t>
+    <t>2024-05-31T08:44:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
